--- a/Orçamento.xlsx
+++ b/Orçamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thaina.jmsantos1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F72981-40ED-4549-BEF0-1450575C224F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2472A800-7802-4FAA-9AC7-8CF33288586E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{93C02692-7F2E-4706-AFB6-AD4051DEE5E8}"/>
   </bookViews>
@@ -112,7 +112,7 @@
     <t>Microsoft 365 Apps para Pequenos e Médios negócios/$52,80</t>
   </si>
   <si>
-    <t>Kaspersky Small Office Security/$ R$ 1.766</t>
+    <t>Kaspersky Small Office Security/$ R$ 1.267</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,16 +599,14 @@
         <v>24</v>
       </c>
       <c r="C18" s="2">
-        <v>1848</v>
+        <v>1267.2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3">
-        <v>61810</v>
-      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -650,7 +648,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="4">
-        <v>4800</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/Orçamento.xlsx
+++ b/Orçamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thaina.jmsantos1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2472A800-7802-4FAA-9AC7-8CF33288586E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12381C45-FA63-4D30-BAB5-60B54313B25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{93C02692-7F2E-4706-AFB6-AD4051DEE5E8}"/>
   </bookViews>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -162,9 +162,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -483,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7C1362-707B-4B51-9380-121587506C5F}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,6 +615,9 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="B21" s="4">
+        <v>1800</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -632,15 +632,15 @@
         <v>21</v>
       </c>
       <c r="B24" s="4">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="5">
-        <v>500</v>
+      <c r="B25" s="4">
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,6 +658,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FFDB40F11714447B440EA9F4148DA19" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="0628c53fb2352047d7f1855d8165f3e9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="39284192-3fb8-4584-9818-e26078827144" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9703b4b0bba9ab5a69e85ad38d5459c1" ns3:_="">
     <xsd:import namespace="39284192-3fb8-4584-9818-e26078827144"/>
@@ -789,15 +798,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -805,6 +805,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56898E56-A13D-4212-81CC-806A4C5CA073}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE705BDC-C50D-4136-866D-FE24F9AD840E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -822,14 +830,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56898E56-A13D-4212-81CC-806A4C5CA073}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E025F04-70F5-4DE4-BD8A-2E8681CFAC9B}">
   <ds:schemaRefs>
